--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,30 @@
   </si>
   <si>
     <t>excel关联表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作弊指令表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_cheat_system_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel关联表.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作弊指令表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作弊指令表.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -572,7 +596,7 @@
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -671,7 +695,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -695,6 +719,41 @@
         <v>23</v>
       </c>
       <c r="K4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
         <v>23</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,34 @@
   </si>
   <si>
     <t>作弊指令表.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌信息表.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_卡牌信息选择导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -594,10 +622,11 @@
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -755,6 +784,41 @@
       </c>
       <c r="K5" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,10 +197,6 @@
   </si>
   <si>
     <t>o_card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_card_卡牌信息选择导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +609,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -818,7 +814,7 @@
         <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,10 @@
   </si>
   <si>
     <t>o_card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_卡牌信息选择导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +613,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -814,7 +818,7 @@
         <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB52D8C1-1E1F-4BB1-8297-9FDC8662FB3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excel关联表" sheetId="1" r:id="rId1"/>
@@ -19,8 +20,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="o_excel1" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="o_excel1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="F:\编辑器制作资源\Editor20190622\project\dreamland\excel\export\o_excel.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,18 +177,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卡牌信息表.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,13 +194,29 @@
   </si>
   <si>
     <t>o_card_卡牌信息选择导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础卡信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄卡信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,11 +329,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="o_excel_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="o_excel_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -399,6 +408,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -434,6 +460,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,27 +652,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -681,7 +724,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -716,7 +759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -751,7 +794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -786,27 +829,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -818,7 +861,42 @@
         <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -829,32 +907,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB52D8C1-1E1F-4BB1-8297-9FDC8662FB3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C206E09-CCF9-4B6E-B474-09F7CEAAC38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="788" yWindow="3945" windowWidth="20520" windowHeight="10718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excel关联表" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,19 +197,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础卡信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英雄卡信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英雄卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_expert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳克萨玛斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_naxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_honours</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -840,7 +856,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -869,13 +885,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -896,6 +912,111 @@
         <v>23</v>
       </c>
       <c r="K7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
         <v>39</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C206E09-CCF9-4B6E-B474-09F7CEAAC38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4B8A9E-B070-4CD7-86B5-333B2B7B696A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="788" yWindow="3945" windowWidth="20520" windowHeight="10718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excel关联表" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o_card_卡牌信息选择导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +222,14 @@
   </si>
   <si>
     <t>o_card_honours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地精大战侏儒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_gvg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -850,13 +854,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -877,7 +881,7 @@
         <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -885,13 +889,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -912,7 +916,7 @@
         <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -920,23 +924,23 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
       </c>
       <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
@@ -947,7 +951,7 @@
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -955,23 +959,23 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
       <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
@@ -982,7 +986,7 @@
         <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -990,23 +994,23 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
@@ -1017,7 +1021,42 @@
         <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4B8A9E-B070-4CD7-86B5-333B2B7B696A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08BA2CB-C1CE-40E6-9756-4E00DD6AB832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>o_card_gvg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑石山的火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑石山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_brm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1056,6 +1068,41 @@
         <v>23</v>
       </c>
       <c r="K11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
         <v>23</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08BA2CB-C1CE-40E6-9756-4E00DD6AB832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CF7552-0CC6-4229-B335-182A2027F3BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,14 @@
   </si>
   <si>
     <t>o_card_brm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠军的试炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_tgt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1103,6 +1111,41 @@
         <v>23</v>
       </c>
       <c r="K12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
         <v>23</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CF7552-0CC6-4229-B335-182A2027F3BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B158C4C1-35B3-423B-9B11-01219CA16614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>o_card_tgt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险者协会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_loe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1146,6 +1154,41 @@
         <v>23</v>
       </c>
       <c r="K13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
         <v>23</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B158C4C1-35B3-423B-9B11-01219CA16614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3748BD-44CB-469E-960E-9F6FA04572EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3748BD-44CB-469E-960E-9F6FA04572EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69BEA8A-31B1-4A4D-B74F-B1F7B0153B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>o_card_loe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上古之神的低语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上古之神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_wog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -359,6 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -701,16 +714,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
@@ -1189,6 +1202,41 @@
         <v>23</v>
       </c>
       <c r="K14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
         <v>23</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69BEA8A-31B1-4A4D-B74F-B1F7B0153B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543BBF45-3232-440C-B3B8-BAF7DC7BA7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="62">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,18 @@
   </si>
   <si>
     <t>o_card_wog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拉赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡拉赞之夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_kar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1237,6 +1249,41 @@
         <v>23</v>
       </c>
       <c r="K15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" t="s">
         <v>23</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543BBF45-3232-440C-B3B8-BAF7DC7BA7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A32081F-7FE6-4A6D-A261-17B7FD6983EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>o_card_kar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙争虎斗加基森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加基森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_cfm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1284,6 +1296,41 @@
         <v>23</v>
       </c>
       <c r="K16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
         <v>23</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A32081F-7FE6-4A6D-A261-17B7FD6983EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCED274-E1DF-4395-B926-48D03DFCC387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>o_card_cfm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇闯安戈洛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安戈洛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_ung</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -396,6 +408,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -738,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1331,6 +1346,41 @@
         <v>23</v>
       </c>
       <c r="K17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
         <v>23</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCED274-E1DF-4395-B926-48D03DFCC387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BECDA0-625C-4EF8-ABDA-8DADA5CFF244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t>o_card_ung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封王座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_icc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封王座的骑士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1381,6 +1393,41 @@
         <v>23</v>
       </c>
       <c r="K18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
         <v>23</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BECDA0-625C-4EF8-ABDA-8DADA5CFF244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583FEACB-7414-451B-B089-106D5E962139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>冰封王座的骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗头人与地下世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗头人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_loot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1428,6 +1440,41 @@
         <v>23</v>
       </c>
       <c r="K19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
         <v>23</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583FEACB-7414-451B-B089-106D5E962139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C490B0-9C8D-4E2D-A0A5-17788595CD80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="76">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,14 @@
   </si>
   <si>
     <t>o_card_loot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_gil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫森林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1475,6 +1483,41 @@
         <v>23</v>
       </c>
       <c r="K20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
         <v>23</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C490B0-9C8D-4E2D-A0A5-17788595CD80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483C67CD-6D29-4144-BEAC-7ECC6AE48B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483C67CD-6D29-4144-BEAC-7ECC6AE48B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9954EC-8F20-4535-AA73-564E8BF7B068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="78">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,14 @@
   </si>
   <si>
     <t>女巫森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砰砰计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_bot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1518,6 +1526,41 @@
         <v>23</v>
       </c>
       <c r="K21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
         <v>23</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9954EC-8F20-4535-AA73-564E8BF7B068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFDCFEE-8242-43C0-B04D-EAA12E2D84BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,18 @@
   </si>
   <si>
     <t>o_card_bot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乱斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_card_trl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉斯塔哈的大乱斗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1561,6 +1573,41 @@
         <v>23</v>
       </c>
       <c r="K22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
         <v>23</v>
       </c>
     </row>
